--- a/tables/crosstab/crosstab_safety_time/regulations VS visited.xlsx
+++ b/tables/crosstab/crosstab_safety_time/regulations VS visited.xlsx
@@ -468,7 +468,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -483,25 +483,25 @@
         <v>39</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2">
-        <v>4.66</v>
+        <v>4.5</v>
       </c>
       <c r="I2">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="J2">
-        <v>7.84</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L2">
-        <v>9.56</v>
+        <v>9.75</v>
       </c>
       <c r="M2">
-        <v>25.49</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -509,40 +509,40 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G3">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H3">
-        <v>17.89</v>
+        <v>17.5</v>
       </c>
       <c r="I3">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J3">
-        <v>19.36</v>
+        <v>19.5</v>
       </c>
       <c r="K3">
-        <v>8.33</v>
+        <v>8.25</v>
       </c>
       <c r="L3">
-        <v>27.45</v>
+        <v>27.5</v>
       </c>
       <c r="M3">
-        <v>74.51000000000001</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -550,37 +550,37 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H4">
-        <v>22.55</v>
+        <v>22</v>
       </c>
       <c r="I4">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="J4">
-        <v>27.21</v>
+        <v>27.5</v>
       </c>
       <c r="K4">
-        <v>11.03</v>
+        <v>11</v>
       </c>
       <c r="L4">
-        <v>37.01</v>
+        <v>37.25</v>
       </c>
       <c r="M4">
         <v>100</v>
